--- a/data/dummy_data_marketplace.xlsx
+++ b/data/dummy_data_marketplace.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rick\OneDrive\Information studies\Data Systems Project\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rick\PycharmProjects\DSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26BDFC7-39E0-497A-BBA2-9F1C88B3072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB34EE59-5BCD-4181-9E5C-DF54289F721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2745" windowWidth="24810" windowHeight="12105" xr2:uid="{423E1D34-6D0C-44BF-91E6-29A8DD20F862}"/>
+    <workbookView xWindow="2655" yWindow="540" windowWidth="24810" windowHeight="12585" xr2:uid="{423E1D34-6D0C-44BF-91E6-29A8DD20F862}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
-    <t>Material type</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Weight (in tonns)</t>
-  </si>
-  <si>
     <t>steel</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Kromslootpark 1, Apeldoorn</t>
   </si>
   <si>
-    <t>Price (per tonn in euros)</t>
-  </si>
-  <si>
     <t>Gemeente Almere</t>
   </si>
   <si>
@@ -118,6 +106,18 @@
   </si>
   <si>
     <t>langeweg 154, Groningen</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Material_type</t>
+  </si>
+  <si>
+    <t>Weight_(in_tonns)</t>
+  </si>
+  <si>
+    <t>Price_(per_tonn_in_euros)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,39 +488,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>550</v>
@@ -528,19 +528,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2.5299999999999998</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -548,19 +548,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>75</v>
@@ -568,59 +568,59 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
       <c r="F7">
         <v>1200</v>
@@ -628,19 +628,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>67</v>
@@ -648,19 +648,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>30</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>900</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -688,19 +688,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1.2</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>60</v>
@@ -708,5 +708,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>